--- a/bankrotQuestions.xlsx
+++ b/bankrotQuestions.xlsx
@@ -75,7 +75,11 @@
     <t xml:space="preserve">Как посмотреть свою заявку на участие в личном кабинете Viomitra.Банкротство</t>
   </si>
   <si>
-    <t xml:space="preserve">In</t>
+    <t xml:space="preserve">В личном кабинете вверху нажмите кнопку «Мои заявки».  В «Моих заявках» находятся все Ваши заявки, которые Вы подали на участие, либо сохранили как черновик. 
+Если Статус заявки «Ожидает рассмотрения» - означает, что Вы подали заявку на участие, и заявка направлена Организатору торгов на рассмотрение. Когда прием заявок на участие закончится, Организатор торгов рассмотрит Вашу заявку.
+Чтобы посмотреть Вашу заявку на участие, нажмите  на номер Вашей заявки ( номер в таблице слева). При  нажатии на номер, Вы перейдете в саму заявку. 
+Если статус заявки на участие «Новый» -  статус новый означает, что Вы сохранили заявку  как черновик. Черновики заявки находится только в личном кабинете пользователя. 
+Чтобы подать заявку на участие -  необходимо вернуться во вкладку Мои заявки — в таблице заявки на участие справа нажать (+) или подать. Откроется форма заявки на участие. Если Вы хотите добавить или удалить документы в заявку, Вы делаете необходимые действия. Не зубудьте документы подписать ЭЦП ( напротив каждого документа нажать Подписать ЭЦП. Если документы подписаны — подписывать их не надо. Статус у таких документов  - Подпись корректорная). Чтобы подать заявку на участие  - нажать кнопку Подать заявку.</t>
   </si>
   <si>
     <t xml:space="preserve">Как подать заявку на участие Viomitra.Банкротство</t>
@@ -856,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="204.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -956,7 +960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="150.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>

--- a/bankrotQuestions.xlsx
+++ b/bankrotQuestions.xlsx
@@ -109,37 +109,7 @@
     <t xml:space="preserve">Как отредактировать заявку на участие  Viomitra.Банкротство</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Чтобы </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">отредактировать заявку на участие</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и подать повторно- в табличке заявки справа нажмите Перезапустить. Откроется форма редактирования заявки на участие. Чтобы повторно подать заявку на участие - нажать кнопку Подать заявку.</t>
-    </r>
+    <t xml:space="preserve">Чтобы отредактировать заявку на участие и подать повторно- в табличке заявки справа нажмите Перезапустить. Откроется форма редактирования заявки на участие. Чтобы повторно подать заявку на участие - нажать кнопку Подать заявку.</t>
   </si>
   <si>
     <t xml:space="preserve">При попытке подать заявку на участие система пишет — Вами не подана заявка на присоединение к регламенту Viomitra.Банкротство</t>
@@ -637,14 +607,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans Narrow"/>
@@ -670,6 +632,14 @@
     </font>
     <font>
       <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -718,7 +688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -728,6 +698,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,8 +834,8 @@
   </sheetPr>
   <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -869,7 +843,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="67.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="114.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="184.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -886,17 +860,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -907,10 +881,10 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -922,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -932,87 +906,87 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="204.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="150.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="69.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="69.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2"/>
@@ -1021,10 +995,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="69.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2"/>
@@ -1033,14 +1007,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1048,7 +1022,7 @@
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2"/>
@@ -1064,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1076,7 +1050,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1084,11 +1058,11 @@
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1096,13 +1070,13 @@
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1110,13 +1084,13 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1124,13 +1098,13 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1138,13 +1112,13 @@
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1152,13 +1126,13 @@
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1166,13 +1140,13 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1180,13 +1154,13 @@
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1194,11 +1168,11 @@
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1206,11 +1180,11 @@
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1221,10 +1195,10 @@
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1235,10 +1209,10 @@
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1249,7 +1223,7 @@
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1263,10 +1237,10 @@
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1274,11 +1248,11 @@
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1286,11 +1260,11 @@
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1298,7 +1272,7 @@
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="2"/>
@@ -1307,34 +1281,34 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="2"/>
@@ -1349,10 +1323,10 @@
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1363,10 +1337,10 @@
       <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1390,7 +1364,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1398,7 +1372,7 @@
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="2"/>
@@ -1410,7 +1384,7 @@
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2"/>
@@ -1422,11 +1396,11 @@
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1434,11 +1408,11 @@
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1446,11 +1420,11 @@
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1458,7 +1432,7 @@
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="2"/>
@@ -2769,9 +2743,6 @@
       <c r="D264" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="Вам необходимо предоставить Заявление на возврат задатка. &#10;В тексте заявления Вам необходимо указать Ваши данные: (ФИО, ИНН получателя обязателен, сумму задатка, и банковские реквизиты). &#10;Заявление Вам необходимо подписать и скан направить на электронный адрес Оператора support@viomitra.ru. Электронную почту оператору Вы так же можете увидеть в разделе Контакты, на сайте ЭТП."/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
